--- a/data/trans_orig/CONS_COL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COL-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en País Vasco</t>
+          <t>Consumo de medicamentos para el colesterol en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en Andalucia</t>
+          <t>Consumo de medicamentos para el colesterol en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en C.Valenciana</t>
+          <t>Consumo de medicamentos para el colesterol en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_COL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COL-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23896</t>
+          <t>20174</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20440</t>
+          <t>17070</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27925</t>
+          <t>23434</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29603</t>
+          <t>28405</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25498</t>
+          <t>24549</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33920</t>
+          <t>32111</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>53500</t>
+          <t>48579</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>48174</t>
+          <t>43934</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>60110</t>
+          <t>53793</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>26,37%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64168</t>
+          <t>62368</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60139</t>
+          <t>59108</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>67624</t>
+          <t>65472</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,86%</t>
+          <t>75,56%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,29%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,79%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>98141</t>
+          <t>93047</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93824</t>
+          <t>89341</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>102246</t>
+          <t>96903</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,83%</t>
+          <t>76,61%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>73,56%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>80,04%</t>
+          <t>79,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>162309</t>
+          <t>155415</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>155699</t>
+          <t>150201</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>167635</t>
+          <t>160060</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>75,21%</t>
+          <t>76,19%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>72,15%</t>
+          <t>73,63%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>77,68%</t>
+          <t>78,46%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75114</t>
+          <t>71515</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68126</t>
+          <t>65177</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82427</t>
+          <t>78694</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>55037</t>
+          <t>55303</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49754</t>
+          <t>49561</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>61285</t>
+          <t>61484</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>130151</t>
+          <t>126818</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>120940</t>
+          <t>117670</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>139754</t>
+          <t>135753</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>14,98%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>378377</t>
+          <t>390164</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>371064</t>
+          <t>382985</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>385365</t>
+          <t>396502</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,44%</t>
+          <t>84,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,98%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>376765</t>
+          <t>389054</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>370517</t>
+          <t>382873</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>382048</t>
+          <t>394796</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>755142</t>
+          <t>779217</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>745539</t>
+          <t>770282</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>764353</t>
+          <t>788365</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>85,3%</t>
+          <t>86,0%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>84,21%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>87,01%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13680</t>
+          <t>15407</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10861</t>
+          <t>12282</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16748</t>
+          <t>19190</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,17 +1456,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11260</t>
+          <t>13219</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8744</t>
+          <t>10156</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14220</t>
+          <t>16276</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1476,12 +1476,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>24940</t>
+          <t>28626</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>21296</t>
+          <t>24298</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>29683</t>
+          <t>33411</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,28%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>137945</t>
+          <t>160154</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>134877</t>
+          <t>156371</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>140764</t>
+          <t>163279</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,17 +1569,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>182977</t>
+          <t>214775</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>180017</t>
+          <t>211718</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>185493</t>
+          <t>217838</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>320923</t>
+          <t>374929</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>316180</t>
+          <t>370144</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>324567</t>
+          <t>379257</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>93,98%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>112690</t>
+          <t>107097</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>104155</t>
+          <t>99463</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>121637</t>
+          <t>116104</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>95901</t>
+          <t>96927</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>88862</t>
+          <t>88952</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>104314</t>
+          <t>105035</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>208591</t>
+          <t>204023</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>197518</t>
+          <t>192624</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>221042</t>
+          <t>216100</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>14,28%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>580491</t>
+          <t>612684</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>571544</t>
+          <t>603677</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>589026</t>
+          <t>620318</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>83,74%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,45%</t>
+          <t>83,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>84,97%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>657883</t>
+          <t>696876</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>649470</t>
+          <t>688768</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>664922</t>
+          <t>704851</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>86,16%</t>
+          <t>86,77%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,21%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1238374</t>
+          <t>1309561</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1225923</t>
+          <t>1297484</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1249447</t>
+          <t>1320960</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>86,52%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>87,27%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37325</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57902</t>
+          <t>58379</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>100600</t>
+          <t>99291</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>127147</t>
+          <t>126561</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>142897</t>
+          <t>142926</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>178424</t>
+          <t>179223</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>28,75%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>170395</t>
+          <t>169918</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>190972</t>
+          <t>191750</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,64%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,65%</t>
+          <t>83,99%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>267943</t>
+          <t>268529</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>294490</t>
+          <t>295799</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>67,82%</t>
+          <t>67,97%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>74,87%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>444963</t>
+          <t>444164</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>480490</t>
+          <t>480461</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>77,08%</t>
+          <t>77,07%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71854</t>
+          <t>65663</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>157191</t>
+          <t>155192</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>116894</t>
+          <t>118346</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>674121</t>
+          <t>741421</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>53,5%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>229840</t>
+          <t>226614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1021199</t>
+          <t>1031123</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>36,89%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1252202</t>
+          <t>1254201</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1337539</t>
+          <t>1343730</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>711690</t>
+          <t>644390</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1268917</t>
+          <t>1267465</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>46,5%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1774005</t>
+          <t>1764081</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2565364</t>
+          <t>2568590</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>63,47%</t>
+          <t>63,11%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>91,89%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29263</t>
+          <t>29533</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50474</t>
+          <t>50564</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37960</t>
+          <t>37952</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>56454</t>
+          <t>58046</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>72102</t>
+          <t>70814</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>100646</t>
+          <t>101617</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,25%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>409327</t>
+          <t>409237</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>430538</t>
+          <t>430268</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>89,0%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>386920</t>
+          <t>385328</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>405414</t>
+          <t>405422</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>802529</t>
+          <t>801558</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>831073</t>
+          <t>832361</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>88,86%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>92,16%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>136288</t>
+          <t>139439</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>247964</t>
+          <t>245180</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>281654</t>
+          <t>284288</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>975052</t>
+          <t>937618</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>472307</t>
+          <t>473528</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1407879</t>
+          <t>1294137</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>29,94%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1849527</t>
+          <t>1852311</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1961203</t>
+          <t>1958052</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,18%</t>
+          <t>88,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1249224</t>
+          <t>1286658</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1942622</t>
+          <t>1939988</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>56,16%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,34%</t>
+          <t>87,22%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2913887</t>
+          <t>3027629</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3849459</t>
+          <t>3848238</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>67,42%</t>
+          <t>70,06%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>89,07%</t>
+          <t>89,04%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_COL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COL-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el colesterol en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20174</t>
+          <t>50515</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17070</t>
+          <t>39356</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23434</t>
+          <t>62844</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28405</t>
+          <t>124883</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24549</t>
+          <t>110122</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>32111</t>
+          <t>138743</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>280</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>48579</t>
+          <t>175398</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>43934</t>
+          <t>157041</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>53793</t>
+          <t>195549</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>28,42%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62368</t>
+          <t>204877</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59108</t>
+          <t>192548</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>65472</t>
+          <t>216036</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>75,56%</t>
+          <t>80,22%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>75,39%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,32%</t>
+          <t>84,59%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>484</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93047</t>
+          <t>307714</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>89341</t>
+          <t>293854</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>96903</t>
+          <t>322475</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,61%</t>
+          <t>71,13%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>73,56%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>79,79%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>705</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>155415</t>
+          <t>512591</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>150201</t>
+          <t>492440</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>160060</t>
+          <t>530948</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>76,19%</t>
+          <t>74,51%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>73,63%</t>
+          <t>71,58%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>78,46%</t>
+          <t>77,17%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71515</t>
+          <t>130277</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65177</t>
+          <t>110281</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78694</t>
+          <t>151305</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>200</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>55303</t>
+          <t>117706</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49561</t>
+          <t>103023</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>61484</t>
+          <t>136772</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>356</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>126818</t>
+          <t>247983</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>117670</t>
+          <t>224874</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>135753</t>
+          <t>276458</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>10,81%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2221</t>
+          <t>955</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>390164</t>
+          <t>1157410</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>382985</t>
+          <t>1136382</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>396502</t>
+          <t>1177406</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,51%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>88,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2174</t>
+          <t>1439</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>389054</t>
+          <t>1153035</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>382873</t>
+          <t>1133969</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>394796</t>
+          <t>1167718</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>90,74%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>86,16%</t>
+          <t>89,24%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4395</t>
+          <t>2394</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>779217</t>
+          <t>2310445</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>770282</t>
+          <t>2281970</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>788365</t>
+          <t>2333554</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>86,0%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>85,02%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>87,01%</t>
+          <t>91,21%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15407</t>
+          <t>43502</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12282</t>
+          <t>32609</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19190</t>
+          <t>55383</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13219</t>
+          <t>53682</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10156</t>
+          <t>43606</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16276</t>
+          <t>66625</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>141</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>28626</t>
+          <t>97184</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>24298</t>
+          <t>80301</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>33411</t>
+          <t>113552</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>11,29%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>431</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>160154</t>
+          <t>466377</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>156371</t>
+          <t>454496</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>163279</t>
+          <t>477270</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,07%</t>
+          <t>89,14%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>581</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>214775</t>
+          <t>442224</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>211718</t>
+          <t>429281</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>217838</t>
+          <t>452300</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>89,18%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>86,57%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>374929</t>
+          <t>908602</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>370144</t>
+          <t>892234</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>379257</t>
+          <t>925485</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>92,02%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>107097</t>
+          <t>224295</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>99463</t>
+          <t>199930</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>116104</t>
+          <t>254769</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>496</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>96927</t>
+          <t>296270</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>88952</t>
+          <t>271535</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>105035</t>
+          <t>323998</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>777</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>204023</t>
+          <t>520565</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>192624</t>
+          <t>485890</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>216100</t>
+          <t>562332</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>13,22%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3417</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>612684</t>
+          <t>1828664</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>603677</t>
+          <t>1798190</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>620318</t>
+          <t>1853029</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>85,12%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3879</t>
+          <t>2504</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>696876</t>
+          <t>1902974</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>688768</t>
+          <t>1875246</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>704851</t>
+          <t>1927709</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>86,77%</t>
+          <t>85,27%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7296</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1309561</t>
+          <t>3731638</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1297484</t>
+          <t>3689871</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1320960</t>
+          <t>3766313</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>86,52%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>88,57%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el colesterol en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>47371</t>
+          <t>65802</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55828</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58379</t>
+          <t>75184</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>113571</t>
+          <t>109950</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>99291</t>
+          <t>97756</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>126561</t>
+          <t>120666</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>466</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>160942</t>
+          <t>175752</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>142926</t>
+          <t>162185</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>179223</t>
+          <t>189810</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>35,91%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>38,78%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>180926</t>
+          <t>149994</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>169918</t>
+          <t>140612</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>191750</t>
+          <t>159968</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,25%</t>
+          <t>69,51%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>65,16%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,99%</t>
+          <t>74,13%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>375</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>281519</t>
+          <t>163731</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>268529</t>
+          <t>153015</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>295799</t>
+          <t>175925</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,25%</t>
+          <t>59,83%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>67,97%</t>
+          <t>55,91%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>64,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>731</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>462445</t>
+          <t>313726</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>444164</t>
+          <t>299668</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>480461</t>
+          <t>327293</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>74,18%</t>
+          <t>64,09%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>71,25%</t>
+          <t>61,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>77,07%</t>
+          <t>66,87%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>120986</t>
+          <t>116489</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65663</t>
+          <t>102747</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>155192</t>
+          <t>130577</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>251</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>311362</t>
+          <t>123455</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>118346</t>
+          <t>107118</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>741421</t>
+          <t>139012</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>53,5%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>535</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>432348</t>
+          <t>239944</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>226614</t>
+          <t>220318</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1031123</t>
+          <t>262378</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>15,16%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1288407</t>
+          <t>745529</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1254201</t>
+          <t>731441</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1343730</t>
+          <t>759271</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,99%</t>
+          <t>84,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1074449</t>
+          <t>744725</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>644390</t>
+          <t>729168</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1267465</t>
+          <t>761062</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>77,53%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>46,5%</t>
+          <t>83,99%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2394</t>
+          <t>2624</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2362856</t>
+          <t>1490254</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1764081</t>
+          <t>1467820</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2568590</t>
+          <t>1509880</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>86,13%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>63,11%</t>
+          <t>84,84%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>87,27%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39293</t>
+          <t>45167</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29533</t>
+          <t>36539</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50564</t>
+          <t>56608</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46765</t>
+          <t>31719</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37952</t>
+          <t>24327</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>58046</t>
+          <t>40604</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>157</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>86058</t>
+          <t>76886</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>70814</t>
+          <t>65691</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>101617</t>
+          <t>90649</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>420508</t>
+          <t>333386</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>409237</t>
+          <t>321945</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>430268</t>
+          <t>342014</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>88,07%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>85,05%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>638</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>396609</t>
+          <t>385156</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>385328</t>
+          <t>376271</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>405422</t>
+          <t>392548</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>86,91%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>817117</t>
+          <t>718542</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>801558</t>
+          <t>704779</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>832361</t>
+          <t>729737</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>88,75%</t>
+          <t>88,6%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>91,74%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>576</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>207649</t>
+          <t>227458</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>139439</t>
+          <t>208278</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>245180</t>
+          <t>248186</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>582</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>471699</t>
+          <t>265124</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>284288</t>
+          <t>241591</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>937618</t>
+          <t>288172</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>1158</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>679348</t>
+          <t>492582</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>473528</t>
+          <t>463304</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1294137</t>
+          <t>521254</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>17,29%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>2268</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1889842</t>
+          <t>1228909</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1852311</t>
+          <t>1208181</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1958052</t>
+          <t>1248089</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>85,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>2285</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1752577</t>
+          <t>1293613</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1286658</t>
+          <t>1270565</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1939988</t>
+          <t>1317146</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>57,85%</t>
+          <t>81,51%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4111</t>
+          <t>4553</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3642418</t>
+          <t>2522522</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3027629</t>
+          <t>2493850</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3848238</t>
+          <t>2551800</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>84,28%</t>
+          <t>83,66%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>70,06%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>84,63%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el colesterol en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el colesterol en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>65802</t>
+          <t>20174</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55828</t>
+          <t>17070</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>75184</t>
+          <t>23434</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>178</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>109950</t>
+          <t>28405</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>97756</t>
+          <t>24549</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>120666</t>
+          <t>32111</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>308</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>175752</t>
+          <t>48579</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>162185</t>
+          <t>43934</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>189810</t>
+          <t>53793</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>26,37%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>149994</t>
+          <t>62368</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>140612</t>
+          <t>59108</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>159968</t>
+          <t>65472</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>69,51%</t>
+          <t>75,56%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65,16%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>74,13%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>577</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>163731</t>
+          <t>93047</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>153015</t>
+          <t>89341</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>175925</t>
+          <t>96903</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>76,61%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>55,91%</t>
+          <t>73,56%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>64,28%</t>
+          <t>79,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>950</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>313726</t>
+          <t>155415</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>299668</t>
+          <t>150201</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>327293</t>
+          <t>160060</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>64,09%</t>
+          <t>76,19%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>61,22%</t>
+          <t>73,63%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>66,87%</t>
+          <t>78,46%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>116489</t>
+          <t>71515</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>102747</t>
+          <t>65177</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>130577</t>
+          <t>78694</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>329</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>123455</t>
+          <t>55303</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>107118</t>
+          <t>49561</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>139012</t>
+          <t>61484</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>755</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>239944</t>
+          <t>126818</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>220318</t>
+          <t>117670</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>262378</t>
+          <t>135753</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>14,98%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>745529</t>
+          <t>390164</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>731441</t>
+          <t>382985</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>759271</t>
+          <t>396502</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,49%</t>
+          <t>84,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,85%</t>
+          <t>82,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>2174</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>744725</t>
+          <t>389054</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>729168</t>
+          <t>382873</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>761062</t>
+          <t>394796</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>85,78%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,99%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2624</t>
+          <t>4395</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1490254</t>
+          <t>779217</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1467820</t>
+          <t>770282</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1509880</t>
+          <t>788365</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>86,0%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>84,84%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>87,01%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45167</t>
+          <t>15407</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36539</t>
+          <t>12282</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56608</t>
+          <t>19190</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31719</t>
+          <t>13219</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24327</t>
+          <t>10156</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>40604</t>
+          <t>16276</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>155</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>76886</t>
+          <t>28626</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>65691</t>
+          <t>24298</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>90649</t>
+          <t>33411</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>8,28%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>823</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>333386</t>
+          <t>160154</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>321945</t>
+          <t>156371</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>342014</t>
+          <t>163279</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>385156</t>
+          <t>214775</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>376271</t>
+          <t>211718</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>392548</t>
+          <t>217838</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>718542</t>
+          <t>374929</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>704779</t>
+          <t>370144</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>729737</t>
+          <t>379257</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>93,98%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>640</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>227458</t>
+          <t>107097</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>208278</t>
+          <t>99463</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>248186</t>
+          <t>116104</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>578</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>265124</t>
+          <t>96927</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>241591</t>
+          <t>88952</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>288172</t>
+          <t>105035</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1158</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>492582</t>
+          <t>204023</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>463304</t>
+          <t>192624</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>521254</t>
+          <t>216100</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>14,28%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2268</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1228909</t>
+          <t>612684</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1208181</t>
+          <t>603677</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1248089</t>
+          <t>620318</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>84,38%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,96%</t>
+          <t>83,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,7%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2285</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1293613</t>
+          <t>696876</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1270565</t>
+          <t>688768</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1317146</t>
+          <t>704851</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>81,51%</t>
+          <t>86,77%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>7296</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2522522</t>
+          <t>1309561</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2493850</t>
+          <t>1297484</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2551800</t>
+          <t>1320960</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>83,66%</t>
+          <t>86,52%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,63%</t>
+          <t>87,27%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
